--- a/HHBK_Chemicals_Arbeitsverteilung.xlsx
+++ b/HHBK_Chemicals_Arbeitsverteilung.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
   <si>
     <t>Raspberry Pi/Anlagenautomatisierung</t>
   </si>
@@ -256,23 +256,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -283,6 +280,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -563,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,10 +670,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -680,10 +681,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -691,10 +692,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -702,10 +703,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -713,45 +714,55 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -760,14 +771,16 @@
       <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1"/>
     </row>
@@ -776,9 +789,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="10"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -819,7 +843,7 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -830,14 +854,14 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="5"/>
@@ -846,14 +870,14 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="5"/>
@@ -862,14 +886,14 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -880,14 +904,14 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="5"/>
@@ -896,14 +920,14 @@
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="5"/>
@@ -912,14 +936,14 @@
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -930,14 +954,14 @@
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="5"/>
@@ -946,14 +970,14 @@
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="5"/>
@@ -962,14 +986,14 @@
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -980,14 +1004,14 @@
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="5"/>
@@ -996,14 +1020,14 @@
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="4"/>
       <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="5"/>
@@ -1012,14 +1036,14 @@
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="3"/>
       <c r="C28" s="5" t="s">
         <v>29</v>
       </c>
@@ -1028,31 +1052,35 @@
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="4"/>
       <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
+      <c r="B30" s="3"/>
       <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="3"/>
+      <c r="B31" s="4"/>
       <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
+      <c r="B32" s="3"/>
       <c r="C32" s="5"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="3"/>
+      <c r="B33" s="4"/>
       <c r="C33" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B32:B33"/>
@@ -1069,10 +1097,6 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1092,19 +1116,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="9"/>
       <c r="C1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="9"/>
       <c r="C2" t="s">
         <v>11</v>
       </c>
@@ -1113,7 +1137,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1124,14 +1148,14 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="5"/>
@@ -1140,14 +1164,14 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="5"/>
@@ -1156,14 +1180,14 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1174,14 +1198,14 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="5"/>
@@ -1190,14 +1214,14 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="5"/>
@@ -1206,14 +1230,14 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1224,14 +1248,14 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="5"/>
@@ -1240,14 +1264,14 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="5"/>
@@ -1256,14 +1280,14 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1274,14 +1298,14 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="5"/>
@@ -1290,14 +1314,14 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="5"/>
@@ -1306,7 +1330,7 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1314,7 +1338,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1323,10 +1347,15 @@
         <v>26</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="8"/>
+      <c r="C28" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B26"/>
@@ -1340,11 +1369,6 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A2:B2"/>
     <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1384,7 +1408,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1395,14 +1419,14 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="5"/>
@@ -1411,14 +1435,14 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="5"/>
@@ -1427,14 +1451,14 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1445,14 +1469,14 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="5"/>
@@ -1461,14 +1485,14 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="5"/>
@@ -1477,14 +1501,14 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1495,14 +1519,14 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="5"/>
@@ -1511,14 +1535,14 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="5"/>
@@ -1527,14 +1551,14 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1545,14 +1569,14 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="5"/>
@@ -1561,14 +1585,14 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="5"/>
@@ -1577,14 +1601,14 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="5" t="s">
         <v>34</v>
       </c>
@@ -1593,18 +1617,26 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="B15:B16"/>
@@ -1615,14 +1647,6 @@
     <mergeCell ref="C21:C26"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HHBK_Chemicals_Arbeitsverteilung.xlsx
+++ b/HHBK_Chemicals_Arbeitsverteilung.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Transfer Laptop191205\IF CTA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagy_\source\repos\HHBK_Chemicals\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7862D066-6845-4598-9E19-5E7ED2FF0116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="33048" windowHeight="21504" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bereiche" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
   <si>
     <t>Raspberry Pi/Anlagenautomatisierung</t>
   </si>
@@ -180,12 +181,15 @@
   </si>
   <si>
     <t>Nr.</t>
+  </si>
+  <si>
+    <t>1 K.N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -262,6 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -271,22 +276,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -563,21 +567,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -588,7 +592,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -599,7 +603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -610,7 +614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -621,7 +625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -632,7 +636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -643,7 +647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -654,7 +658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -665,7 +669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -676,7 +680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -687,7 +691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -698,7 +702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -709,7 +713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -720,7 +724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -731,7 +735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -742,7 +746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -753,7 +757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -764,7 +768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -775,7 +779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -784,7 +788,7 @@
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -795,14 +799,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="10"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="10"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="10"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -810,20 +814,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -831,7 +835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -839,249 +843,244 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="C4:C9"/>
@@ -1097,265 +1096,265 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="7"/>
       <c r="C1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="7"/>
       <c r="C2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="7"/>
+      <c r="C28" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A2:B2"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B26"/>
@@ -1370,25 +1369,30 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>43</v>
       </c>
@@ -1396,7 +1400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>19</v>
       </c>
@@ -1404,239 +1408,231 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="8"/>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="5"/>
+      <c r="C29" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="B15:B16"/>
@@ -1647,6 +1643,14 @@
     <mergeCell ref="C21:C26"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HHBK_Chemicals_Arbeitsverteilung.xlsx
+++ b/HHBK_Chemicals_Arbeitsverteilung.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagy_\source\repos\HHBK_Chemicals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TEMP.HERTZ.001\Source\Repos\Toeller\HHBK_Chemicals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7862D066-6845-4598-9E19-5E7ED2FF0116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="33048" windowHeight="21504" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="33045" windowHeight="21510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bereiche" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
   <si>
     <t>Raspberry Pi/Anlagenautomatisierung</t>
   </si>
@@ -184,12 +183,15 @@
   </si>
   <si>
     <t>1 K.N</t>
+  </si>
+  <si>
+    <t>13 C.N.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -276,21 +278,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -567,21 +569,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -592,7 +594,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -603,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -614,7 +616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -625,7 +627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -636,7 +638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -647,7 +649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -658,7 +660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -669,7 +671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -680,7 +682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -691,7 +693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -702,7 +704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -713,7 +715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -724,7 +726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -735,7 +737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -746,7 +748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -757,7 +759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -768,7 +770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -779,7 +781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -788,7 +790,7 @@
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -799,13 +801,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
     </row>
   </sheetData>
@@ -814,20 +816,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -835,7 +837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -843,7 +845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
@@ -854,14 +856,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -870,14 +872,14 @@
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -886,14 +888,14 @@
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -904,14 +906,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -920,14 +922,14 @@
       </c>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -936,16 +938,16 @@
       </c>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>13</v>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>24</v>
@@ -954,14 +956,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -970,14 +972,14 @@
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -986,14 +988,14 @@
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1004,14 +1006,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1020,14 +1022,14 @@
       </c>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1036,14 +1038,14 @@
       </c>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1052,35 +1054,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="4"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="C4:C9"/>
@@ -1097,264 +1103,265 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="10"/>
       <c r="C1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="10"/>
       <c r="C2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="10"/>
+      <c r="C28" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B26"/>
@@ -1369,30 +1376,25 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>43</v>
       </c>
@@ -1400,7 +1402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>19</v>
       </c>
@@ -1408,223 +1410,223 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="8"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1633,6 +1635,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="B15:B16"/>
@@ -1643,14 +1653,6 @@
     <mergeCell ref="C21:C26"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HHBK_Chemicals_Arbeitsverteilung.xlsx
+++ b/HHBK_Chemicals_Arbeitsverteilung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagy_\source\repos\HHBK_Chemicals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7862D066-6845-4598-9E19-5E7ED2FF0116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DB784E-3D2F-4E77-952A-24D17AE6F7CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="33048" windowHeight="21504" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
   <si>
     <t>Raspberry Pi/Anlagenautomatisierung</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>Nr.</t>
-  </si>
-  <si>
-    <t>1 K.N</t>
   </si>
 </sst>
 </file>
@@ -276,17 +273,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -844,8 +841,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>51</v>
+      <c r="A4" s="1">
+        <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
@@ -1081,6 +1078,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="C4:C9"/>
@@ -1097,10 +1098,6 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1120,19 +1117,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="10"/>
       <c r="C1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="10"/>
       <c r="C2" t="s">
         <v>11</v>
       </c>
@@ -1141,7 +1138,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1152,14 +1149,14 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="6"/>
@@ -1168,14 +1165,14 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="6"/>
@@ -1184,14 +1181,14 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1202,14 +1199,14 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="6"/>
@@ -1218,14 +1215,14 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="6"/>
@@ -1234,14 +1231,14 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1252,14 +1249,14 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="6"/>
@@ -1268,14 +1265,14 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="6"/>
@@ -1284,14 +1281,14 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1302,14 +1299,14 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="6"/>
@@ -1318,14 +1315,14 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="6"/>
@@ -1334,7 +1331,7 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1342,7 +1339,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1351,10 +1348,15 @@
         <v>26</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="10"/>
+      <c r="C28" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B26"/>
@@ -1369,11 +1371,6 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1412,7 +1409,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1423,14 +1420,14 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="6"/>
@@ -1439,14 +1436,14 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="6"/>
@@ -1455,14 +1452,14 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1473,14 +1470,14 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="6"/>
@@ -1489,14 +1486,14 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="6"/>
@@ -1505,14 +1502,14 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1523,14 +1520,14 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="6"/>
@@ -1539,14 +1536,14 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="6"/>
@@ -1555,14 +1552,14 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1573,14 +1570,14 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="6"/>
@@ -1589,14 +1586,14 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="6"/>
@@ -1605,14 +1602,14 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="6" t="s">
         <v>34</v>
       </c>
@@ -1621,7 +1618,7 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="8"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1633,6 +1630,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="B15:B16"/>
@@ -1643,14 +1648,6 @@
     <mergeCell ref="C21:C26"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
